--- a/results.xlsx
+++ b/results.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -384,24 +384,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ASD</t>
+          <t>Apurv</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Apurv Deshpande</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
